--- a/processing_scripts/Iron/2025/Raw Data/20260219_TEMPEST_Fe_STD_rerunwithnewFerrozine.xlsx
+++ b/processing_scripts/Iron/2025/Raw Data/20260219_TEMPEST_Fe_STD_rerunwithnewFerrozine.xlsx
@@ -4552,7 +4552,7 @@
   <dimension ref="A1:Z22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:M19"/>
+      <selection activeCell="I17" sqref="I17:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
